--- a/config_vivo/提审配置/shoping_config.xlsx
+++ b/config_vivo/提审配置/shoping_config.xlsx
@@ -6148,7 +6148,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" s="17">
         <v>1</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="17">
         <v>1</v>
